--- a/new-stats/fc-cajamarca.xlsx
+++ b/new-stats/fc-cajamarca.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FC Cajamarca</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/fc-cajamarca.xlsx
+++ b/new-stats/fc-cajamarca.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/02/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Huancayo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FC Cajamarca</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
